--- a/teaching/traditional_assets/database/data/slovenia/slovenia_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/slovenia/slovenia_reinsurance.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0503</v>
+        <v>0.0582</v>
       </c>
       <c r="E2">
-        <v>0.245</v>
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>-0.027</v>
       </c>
       <c r="G2">
-        <v>0.1236641221374046</v>
+        <v>0.08927875243664718</v>
       </c>
       <c r="H2">
-        <v>0.1236641221374046</v>
+        <v>0.08927875243664718</v>
       </c>
       <c r="I2">
-        <v>0.1280916030534351</v>
+        <v>0.1072124756335283</v>
       </c>
       <c r="J2">
-        <v>0.1005411744637298</v>
+        <v>0.09197084787031706</v>
       </c>
       <c r="K2">
-        <v>55.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L2">
-        <v>0.08534351145038167</v>
+        <v>0.09148797920727746</v>
       </c>
       <c r="M2">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05145413870246086</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2880143112701253</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05145413870246086</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.2880143112701253</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>85.3</v>
+        <v>157.1</v>
       </c>
       <c r="V2">
-        <v>0.2726110578459572</v>
+        <v>0.4479612204163103</v>
       </c>
       <c r="W2">
-        <v>0.1470278800631247</v>
+        <v>0.1714981729598051</v>
       </c>
       <c r="X2">
-        <v>0.08304190592817202</v>
+        <v>0.100231193209154</v>
       </c>
       <c r="Y2">
-        <v>0.06398597413495265</v>
+        <v>0.07126697975065116</v>
       </c>
       <c r="Z2">
-        <v>2.200940860215054</v>
+        <v>2.655096266648265</v>
       </c>
       <c r="AA2">
-        <v>0.2212851790112333</v>
+        <v>0.2441914548209543</v>
       </c>
       <c r="AB2">
-        <v>0.08159857839742102</v>
+        <v>0.08313903398391753</v>
       </c>
       <c r="AC2">
-        <v>0.1396866006138122</v>
+        <v>0.1610524208370368</v>
       </c>
       <c r="AD2">
-        <v>9.42</v>
+        <v>101.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.42</v>
+        <v>101.6</v>
       </c>
       <c r="AG2">
-        <v>-75.88</v>
+        <v>-55.5</v>
       </c>
       <c r="AH2">
-        <v>0.02922561429635145</v>
+        <v>0.2246296705726288</v>
       </c>
       <c r="AI2">
-        <v>0.02240616526330812</v>
+        <v>0.164854778516956</v>
       </c>
       <c r="AJ2">
-        <v>-0.3201417601890136</v>
+        <v>-0.1880081300813008</v>
       </c>
       <c r="AK2">
-        <v>-0.2264263547386011</v>
+        <v>-0.1208623693379791</v>
       </c>
       <c r="AL2">
-        <v>0.158</v>
+        <v>3.4</v>
       </c>
       <c r="AM2">
-        <v>0.158</v>
+        <v>3.4</v>
       </c>
       <c r="AN2">
-        <v>0.1070454545454545</v>
+        <v>1.132664437012263</v>
       </c>
       <c r="AO2">
-        <v>531.0126582278481</v>
+        <v>24.26470588235294</v>
       </c>
       <c r="AP2">
-        <v>-0.8622727272727272</v>
+        <v>-0.6187290969899666</v>
       </c>
       <c r="AQ2">
-        <v>531.0126582278481</v>
+        <v>24.26470588235294</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0503</v>
+        <v>0.0582</v>
       </c>
       <c r="E3">
-        <v>0.245</v>
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>-0.027</v>
       </c>
       <c r="G3">
-        <v>0.1236641221374046</v>
+        <v>0.08927875243664718</v>
       </c>
       <c r="H3">
-        <v>0.1236641221374046</v>
+        <v>0.08927875243664718</v>
       </c>
       <c r="I3">
-        <v>0.1280916030534351</v>
+        <v>0.1072124756335283</v>
       </c>
       <c r="J3">
-        <v>0.1005411744637298</v>
+        <v>0.09197084787031706</v>
       </c>
       <c r="K3">
-        <v>55.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="L3">
-        <v>0.08534351145038167</v>
+        <v>0.09148797920727746</v>
       </c>
       <c r="M3">
-        <v>16.1</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05145413870246086</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.2880143112701253</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>16.1</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05145413870246086</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.2880143112701253</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>85.3</v>
+        <v>157.1</v>
       </c>
       <c r="V3">
-        <v>0.2726110578459572</v>
+        <v>0.4479612204163103</v>
       </c>
       <c r="W3">
-        <v>0.1470278800631247</v>
+        <v>0.1714981729598051</v>
       </c>
       <c r="X3">
-        <v>0.08304190592817202</v>
+        <v>0.100231193209154</v>
       </c>
       <c r="Y3">
-        <v>0.06398597413495265</v>
+        <v>0.07126697975065116</v>
       </c>
       <c r="Z3">
-        <v>2.200940860215054</v>
+        <v>2.655096266648265</v>
       </c>
       <c r="AA3">
-        <v>0.2212851790112333</v>
+        <v>0.2441914548209543</v>
       </c>
       <c r="AB3">
-        <v>0.08159857839742102</v>
+        <v>0.08313903398391753</v>
       </c>
       <c r="AC3">
-        <v>0.1396866006138122</v>
+        <v>0.1610524208370368</v>
       </c>
       <c r="AD3">
-        <v>9.42</v>
+        <v>101.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.42</v>
+        <v>101.6</v>
       </c>
       <c r="AG3">
-        <v>-75.88</v>
+        <v>-55.5</v>
       </c>
       <c r="AH3">
-        <v>0.02922561429635145</v>
+        <v>0.2246296705726288</v>
       </c>
       <c r="AI3">
-        <v>0.02240616526330812</v>
+        <v>0.164854778516956</v>
       </c>
       <c r="AJ3">
-        <v>-0.3201417601890136</v>
+        <v>-0.1880081300813008</v>
       </c>
       <c r="AK3">
-        <v>-0.2264263547386011</v>
+        <v>-0.1208623693379791</v>
       </c>
       <c r="AL3">
-        <v>0.158</v>
+        <v>3.4</v>
       </c>
       <c r="AM3">
-        <v>0.158</v>
+        <v>3.4</v>
       </c>
       <c r="AN3">
-        <v>0.1070454545454545</v>
+        <v>1.132664437012263</v>
       </c>
       <c r="AO3">
-        <v>531.0126582278481</v>
+        <v>24.26470588235294</v>
       </c>
       <c r="AP3">
-        <v>-0.8622727272727272</v>
+        <v>-0.6187290969899666</v>
       </c>
       <c r="AQ3">
-        <v>531.0126582278481</v>
+        <v>24.26470588235294</v>
       </c>
     </row>
   </sheetData>
